--- a/Year.xlsx
+++ b/Year.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER.DESKTOP-JCQKSPC\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\nts_new\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,12 +24,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Index Number</t>
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>19A0001</t>
+  </si>
+  <si>
+    <t>19B0002</t>
+  </si>
+  <si>
+    <t>20A0001</t>
+  </si>
+  <si>
+    <t>20B0002</t>
+  </si>
+  <si>
+    <t>21A0001</t>
+  </si>
+  <si>
+    <t>21B0002</t>
   </si>
 </sst>
 </file>
@@ -347,10 +365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -364,19 +382,51 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>190001</v>
+      <c r="A2" t="s">
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>200001</v>
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
         <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
